--- a/uploadActivity/Activity.xlsx
+++ b/uploadActivity/Activity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>Nama Activity</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Section</t>
   </si>
   <si>
-    <t>Due Date Plan</t>
+    <t>Start Implementation</t>
   </si>
   <si>
     <t>Folow up NOR ke customer</t>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Release dan Sosialisasi Henkaten</t>
+  </si>
+  <si>
+    <t>Release material offline</t>
   </si>
   <si>
     <t>WO ENG. PACKET/ ENG. ORI JAPAN</t>
@@ -1107,17 +1110,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="50" zoomScaleNormal="50" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="86" customWidth="true" style="12"/>
+    <col min="1" max="1" width="108.7109375" customWidth="true" style="12"/>
     <col min="2" max="2" width="16.28515625" customWidth="true" style="12"/>
-    <col min="3" max="3" width="15.28515625" customWidth="true" style="12"/>
+    <col min="3" max="3" width="22" customWidth="true" style="12"/>
     <col min="4" max="4" width="15.28515625" customWidth="true" style="12"/>
     <col min="5" max="5" width="13.5703125" customWidth="true" style="12"/>
     <col min="6" max="6" width="15.28515625" customWidth="true" style="12"/>
@@ -1142,9 +1145,7 @@
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
@@ -1153,9 +1154,7 @@
       <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
@@ -1164,9 +1163,7 @@
       <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
@@ -1175,9 +1172,7 @@
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -1186,9 +1181,7 @@
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -1198,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <v>43671</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1208,9 +1201,7 @@
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
@@ -1219,9 +1210,7 @@
       <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
@@ -1230,9 +1219,7 @@
       <c r="B10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
@@ -1241,9 +1228,7 @@
       <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -1252,9 +1237,7 @@
       <c r="B12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -1264,7 +1247,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="14">
-        <v>43671</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1274,9 +1257,7 @@
       <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
@@ -1286,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1296,9 +1277,7 @@
       <c r="B16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
@@ -1307,9 +1286,7 @@
       <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:7" customHeight="1" ht="15.75">
       <c r="A18" s="2" t="s">
@@ -1318,9 +1295,7 @@
       <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:7" customHeight="1" ht="15.75">
       <c r="A19" s="3" t="s">
@@ -1330,7 +1305,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1340,9 +1315,7 @@
       <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
@@ -1352,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="14">
-        <v>43671</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1362,9 +1335,7 @@
       <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -1374,7 +1345,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1384,9 +1355,7 @@
       <c r="B24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
@@ -1395,9 +1364,7 @@
       <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
@@ -1406,9 +1373,7 @@
       <c r="B26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
@@ -1417,9 +1382,7 @@
       <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
@@ -1428,9 +1391,7 @@
       <c r="B28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
@@ -1439,9 +1400,7 @@
       <c r="B29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
@@ -1450,9 +1409,7 @@
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
@@ -1461,9 +1418,7 @@
       <c r="B31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
@@ -1472,9 +1427,7 @@
       <c r="B32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
@@ -1483,9 +1436,7 @@
       <c r="B33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
@@ -1494,9 +1445,7 @@
       <c r="B34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
@@ -1505,9 +1454,7 @@
       <c r="B35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
@@ -1516,9 +1463,7 @@
       <c r="B36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="s">
@@ -1528,40 +1473,36 @@
         <v>22</v>
       </c>
       <c r="C37" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A38" s="2" t="s">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="C40" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1569,10 +1510,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1580,10 +1521,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1591,54 +1532,46 @@
         <v>47</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="14">
-        <v>43671</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="14">
-        <v>43671</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="14">
-        <v>43671</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="14">
-        <v>43671</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1646,340 +1579,288 @@
         <v>52</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="14">
-        <v>43671</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="14"/>
     </row>
     <row r="52" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="6" t="s">
+      <c r="B53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C53" s="14"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" s="14">
-        <v>43671</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="14">
-        <v>43671</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C68" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C69" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A70" s="8" t="s">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="14">
-        <v>43671</v>
+        <v>43682</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -1987,230 +1868,192 @@
         <v>85</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A85" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B85" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A87" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C88" s="14">
-        <v>43671</v>
+        <v>43690</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C89" s="14"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C92" s="14"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C94" s="14"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C95" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C95" s="14"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C96" s="14"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C97" s="14"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C98" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C98" s="14"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C99" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2218,197 +2061,167 @@
         <v>107</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C100" s="14"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C101" s="14"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C102" s="14"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C103" s="14"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C104" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C104" s="14"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C105" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C105" s="14"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C106" s="14"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C107" s="14"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A110" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C110" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C110" s="14"/>
     </row>
     <row r="111" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C111" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="6" t="s">
+      <c r="B111" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A112" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="13" t="s">
-        <v>93</v>
+      <c r="B112" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C112" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C113" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C114" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A115" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="14"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C115" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C115" s="14"/>
     </row>
     <row r="116" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="14"/>
+    </row>
+    <row r="117" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A117" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C116" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="C117" s="14">
-        <v>43671</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -2416,43 +2229,37 @@
         <v>126</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C118" s="14"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C119" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C119" s="14"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C120" s="14"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C121" s="14">
-        <v>43671</v>
+        <v>43685</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2460,285 +2267,235 @@
         <v>130</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C122" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C122" s="14"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C123" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C123" s="14"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A125" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" s="14"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C125" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C125" s="14"/>
     </row>
     <row r="126" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="6" t="s">
+      <c r="B126" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="14"/>
+    </row>
+    <row r="127" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A127" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C127" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B127" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="14"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C128" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C128" s="14"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C129" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C129" s="14"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C130" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C130" s="14"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C131" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C131" s="14"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C132" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" s="14"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C133" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C133" s="14"/>
     </row>
     <row r="134" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C134" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="6" t="s">
+      <c r="B134" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="14"/>
+    </row>
+    <row r="135" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A135" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C135" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B135" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="14"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C136" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C136" s="14"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C137" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C137" s="14"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C138" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C138" s="14"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C139" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C139" s="14"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C140" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C140" s="14"/>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C141" s="14"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C142" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C142" s="14"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C143" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C143" s="14"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="6" t="s">
-        <v>143</v>
+      <c r="A144" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C144" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A145" s="8" t="s">
-        <v>152</v>
+        <v>125</v>
+      </c>
+      <c r="C144" s="14"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C145" s="14">
-        <v>43671</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C145" s="14"/>
     </row>
     <row r="146" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="14"/>
+    </row>
+    <row r="147" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A147" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C146" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="1" t="s">
+      <c r="B147" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B147" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="C147" s="14">
-        <v>43671</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -2746,32 +2503,28 @@
         <v>156</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C148" s="14">
-        <v>43671</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C148" s="14"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C149" s="14">
-        <v>43671</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C149" s="14"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C150" s="14">
-        <v>43671</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -2779,76 +2532,64 @@
         <v>159</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C151" s="14">
-        <v>43671</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C151" s="14"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C152" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" s="14"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C153" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B153" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" s="14"/>
     </row>
     <row r="154" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="14"/>
+    </row>
+    <row r="155" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A155" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C154" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="1" t="s">
+      <c r="B155" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B155" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C155" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C155" s="14"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C156" s="14">
-        <v>43671</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C156" s="14"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C157" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -2856,76 +2597,64 @@
         <v>167</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C158" s="14">
-        <v>43671</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C158" s="14"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C159" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" s="14"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B160" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B160" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" s="14"/>
     </row>
     <row r="161" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C161" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="1" t="s">
+      <c r="B161" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" s="14"/>
+    </row>
+    <row r="162" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A162" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C162" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B162" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C162" s="14"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C163" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C163" s="14"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C164" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -2933,87 +2662,73 @@
         <v>174</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C165" s="14">
-        <v>43671</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C165" s="14"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C166" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A167" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C166" s="14"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C167" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" customHeight="1" ht="16.5">
-      <c r="A168" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C167" s="14"/>
+    </row>
+    <row r="168" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A168" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C168" s="14"/>
+    </row>
+    <row r="169" spans="1:7" customHeight="1" ht="16.5">
+      <c r="A169" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C168" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A169" s="10" t="s">
+      <c r="B169" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="C169" s="14"/>
+    </row>
+    <row r="170" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A170" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C169" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A170" s="2" t="s">
+      <c r="B170" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B170" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C170" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C170" s="14"/>
     </row>
     <row r="171" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C171" s="14"/>
+    </row>
+    <row r="172" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A172" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C171" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="1" t="s">
+      <c r="B172" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B172" s="13" t="s">
-        <v>183</v>
-      </c>
       <c r="C172" s="14">
-        <v>43671</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -3021,76 +2736,64 @@
         <v>185</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C173" s="14">
-        <v>43671</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C173" s="14"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C174" s="14">
-        <v>43671</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C174" s="14"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C175" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A176" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C175" s="14"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B176" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C176" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B176" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" s="14"/>
     </row>
     <row r="177" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B177" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C177" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="1" t="s">
+      <c r="B177" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177" s="14"/>
+    </row>
+    <row r="178" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A178" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B178" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C178" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B178" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C178" s="14"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C179" s="14">
-        <v>43671</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -3098,65 +2801,59 @@
         <v>192</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C180" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180" s="14"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181" s="14">
-        <v>43671</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="182" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B182" s="16" t="s">
-        <v>183</v>
+      <c r="B182" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C182" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="1" t="s">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A183" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C183" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B183" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" s="14"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C184" s="14">
-        <v>43671</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C184" s="14"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C185" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -3164,10 +2861,10 @@
         <v>198</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C186" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -3175,32 +2872,28 @@
         <v>199</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C187" s="14">
-        <v>43671</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C187" s="14"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C188" s="14">
-        <v>43671</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C188" s="14"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C189" s="14">
-        <v>43671</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -3208,10 +2901,10 @@
         <v>202</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C190" s="14">
-        <v>43671</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -3219,11 +2912,18 @@
         <v>203</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C191" s="14">
-        <v>43671</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C191" s="14"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C192" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/uploadActivity/Activity.xlsx
+++ b/uploadActivity/Activity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>Nama Activity</t>
   </si>
@@ -182,6 +182,9 @@
     <t>Release Symbol Nameplate (untuk approval NP)</t>
   </si>
   <si>
+    <t>cek buzzer</t>
+  </si>
+  <si>
     <t>Pengembalian form dan dokumen obsolete</t>
   </si>
   <si>
@@ -245,6 +248,9 @@
     <t>Release SWCT /Time Study</t>
   </si>
   <si>
+    <t>Insert list material baru ke nys</t>
+  </si>
+  <si>
     <t>Replace ID material pada box / ID dikasihkan ke WHS</t>
   </si>
   <si>
@@ -293,16 +299,19 @@
     <t>(fa) repair ec/chg cf/add cf</t>
   </si>
   <si>
+    <t>(fa) partner material</t>
+  </si>
+  <si>
     <t>(fa) input/chg program ec , chg ec dwg</t>
   </si>
   <si>
     <t>(fa) add program CB EC/DIM/VIS</t>
   </si>
   <si>
+    <t>(fa) Implementasi D/C &amp; cek item perubahan</t>
+  </si>
+  <si>
     <t>prod</t>
-  </si>
-  <si>
-    <t>(fa) Implementasi D/C &amp; cek item perubahan</t>
   </si>
   <si>
     <t>(fa) karantina old part + cct</t>
@@ -683,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -749,11 +758,25 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -809,6 +832,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="3" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="14" fillId="3" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1110,10 +1145,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C191" sqref="C191"/>
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1191,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <v>43676</v>
+        <v>43685</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1228,7 +1263,9 @@
       <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="14">
+        <v>43690</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
@@ -1247,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="14">
-        <v>43677</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1267,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="14">
-        <v>43686</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1304,9 +1341,7 @@
       <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -1324,9 +1359,7 @@
       <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14">
-        <v>43679</v>
-      </c>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
@@ -1344,9 +1377,7 @@
       <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
@@ -1472,9 +1503,7 @@
       <c r="B37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
@@ -1501,9 +1530,7 @@
       <c r="B40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
@@ -1512,9 +1539,7 @@
       <c r="B41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
@@ -1523,9 +1548,7 @@
       <c r="B42" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
@@ -1570,9 +1593,7 @@
       <c r="B47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
@@ -1582,7 +1603,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="14">
-        <v>43686</v>
+        <v>43704</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1604,7 +1625,7 @@
       <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -1612,39 +1633,39 @@
       </c>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="14"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="6" t="s">
+      <c r="B54" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" s="14"/>
     </row>
@@ -1653,7 +1674,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="14"/>
     </row>
@@ -1662,7 +1683,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="14"/>
     </row>
@@ -1671,16 +1692,18 @@
         <v>63</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="C58" s="14">
+        <v>43699</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" s="14"/>
     </row>
@@ -1689,45 +1712,49 @@
         <v>65</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="C60" s="14">
+        <v>43705</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="14">
+        <v>43705</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="14">
-        <v>43679</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="C63" s="14">
+        <v>43703</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64" s="14"/>
     </row>
@@ -1736,7 +1763,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" s="14"/>
     </row>
@@ -1745,7 +1772,7 @@
         <v>71</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" s="14"/>
     </row>
@@ -1754,74 +1781,72 @@
         <v>72</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="14">
-        <v>43686</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69" s="14">
-        <v>43686</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" s="14"/>
     </row>
-    <row r="71" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>58</v>
+      <c r="B71" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C71" s="14"/>
     </row>
-    <row r="72" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A73" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="C74" s="14"/>
     </row>
@@ -1830,7 +1855,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C75" s="14"/>
     </row>
@@ -1839,7 +1864,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C76" s="14"/>
     </row>
@@ -1848,45 +1873,45 @@
         <v>83</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="14">
-        <v>43682</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="C80" s="14">
+        <v>43704</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C81" s="14"/>
     </row>
@@ -1895,7 +1920,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C82" s="14"/>
     </row>
@@ -1904,7 +1929,7 @@
         <v>89</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C83" s="14"/>
     </row>
@@ -1913,7 +1938,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C84" s="14"/>
     </row>
@@ -1922,72 +1947,72 @@
         <v>91</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C85" s="14"/>
     </row>
-    <row r="86" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>78</v>
+      <c r="B86" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C86" s="14"/>
     </row>
-    <row r="87" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>94</v>
+      <c r="B87" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C88" s="14">
-        <v>43690</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A90" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="6" t="s">
+      <c r="B90" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="22"/>
+    </row>
+    <row r="91" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A91" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="19">
+        <v>43706</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C92" s="14"/>
     </row>
@@ -1996,7 +2021,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C93" s="14"/>
     </row>
@@ -2005,7 +2030,7 @@
         <v>101</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C94" s="14"/>
     </row>
@@ -2014,16 +2039,16 @@
         <v>102</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C95" s="14"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C96" s="14"/>
     </row>
@@ -2032,16 +2057,16 @@
         <v>104</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C97" s="14"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C98" s="14"/>
     </row>
@@ -2050,27 +2075,25 @@
         <v>106</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" s="14">
-        <v>43686</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C99" s="14"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C100" s="14"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C101" s="14"/>
     </row>
@@ -2079,16 +2102,16 @@
         <v>109</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C102" s="14"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C103" s="14"/>
     </row>
@@ -2097,7 +2120,7 @@
         <v>111</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C104" s="14"/>
     </row>
@@ -2106,16 +2129,16 @@
         <v>112</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C105" s="14"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C106" s="14"/>
     </row>
@@ -2124,7 +2147,7 @@
         <v>114</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C107" s="14"/>
     </row>
@@ -2133,7 +2156,7 @@
         <v>115</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C108" s="14"/>
     </row>
@@ -2142,7 +2165,7 @@
         <v>116</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C109" s="14"/>
     </row>
@@ -2151,103 +2174,99 @@
         <v>117</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C110" s="14"/>
     </row>
-    <row r="111" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C111" s="14"/>
     </row>
-    <row r="112" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C112" s="14">
-        <v>43686</v>
-      </c>
+      <c r="B112" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" s="14"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C113" s="14">
-        <v>43686</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A114" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C114" s="14"/>
     </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="6" t="s">
+    <row r="115" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A115" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C115" s="14"/>
-    </row>
-    <row r="116" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A116" s="8" t="s">
+      <c r="B115" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="14">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C116" s="14"/>
     </row>
-    <row r="117" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C117" s="14">
-        <v>43679</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="14"/>
+    </row>
+    <row r="119" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A119" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C118" s="14"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C119" s="14"/>
+    </row>
+    <row r="120" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A120" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C119" s="14"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="C120" s="14"/>
     </row>
@@ -2256,10 +2275,10 @@
         <v>129</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C121" s="14">
-        <v>43685</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2267,7 +2286,7 @@
         <v>130</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C122" s="14"/>
     </row>
@@ -2276,7 +2295,7 @@
         <v>131</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C123" s="14"/>
     </row>
@@ -2285,133 +2304,135 @@
         <v>132</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" s="14"/>
+        <v>128</v>
+      </c>
+      <c r="C124" s="14">
+        <v>43704</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C125" s="14"/>
     </row>
-    <row r="126" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A126" s="2" t="s">
+    <row r="126" spans="1:7">
+      <c r="A126" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C126" s="14"/>
     </row>
-    <row r="127" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="16" t="s">
-        <v>125</v>
+      <c r="B127" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C127" s="14"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C128" s="14"/>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="6" t="s">
+    <row r="129" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A129" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C129" s="14"/>
     </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="6" t="s">
+    <row r="130" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A130" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>125</v>
+      <c r="B130" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C130" s="14"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C131" s="14"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C132" s="14"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C133" s="14"/>
     </row>
-    <row r="134" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A134" s="2" t="s">
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C134" s="14"/>
     </row>
-    <row r="135" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="16" t="s">
-        <v>125</v>
+      <c r="B135" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="C135" s="14"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C136" s="14"/>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="6" t="s">
+    <row r="137" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A137" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C137" s="14"/>
     </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A138" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="13" t="s">
-        <v>125</v>
+      <c r="B138" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C138" s="14"/>
     </row>
@@ -2420,7 +2441,7 @@
         <v>147</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C139" s="14"/>
     </row>
@@ -2429,7 +2450,7 @@
         <v>148</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C140" s="14"/>
     </row>
@@ -2438,101 +2459,97 @@
         <v>149</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C141" s="14"/>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C142" s="14"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C143" s="14"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C144" s="14"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="6" t="s">
-        <v>144</v>
+      <c r="A145" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C145" s="14"/>
     </row>
-    <row r="146" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A146" s="8" t="s">
-        <v>153</v>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C146" s="14"/>
     </row>
-    <row r="147" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A147" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B147" s="16" t="s">
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C147" s="14">
-        <v>43676</v>
-      </c>
+      <c r="B147" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="14"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="14"/>
+    </row>
+    <row r="149" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A149" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C148" s="14"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="1" t="s">
+      <c r="B149" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C149" s="14"/>
+    </row>
+    <row r="150" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A150" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B149" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C149" s="14"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C150" s="14">
-        <v>43676</v>
-      </c>
+      <c r="C150" s="14"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C151" s="14"/>
     </row>
@@ -2541,7 +2558,7 @@
         <v>160</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C152" s="14"/>
     </row>
@@ -2550,54 +2567,52 @@
         <v>161</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C153" s="14"/>
     </row>
-    <row r="154" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A154" s="2" t="s">
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B154" s="15" t="s">
-        <v>155</v>
+      <c r="B154" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C154" s="14"/>
     </row>
-    <row r="155" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B155" s="16" t="s">
-        <v>164</v>
+      <c r="B155" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="C155" s="14"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" s="14"/>
+    </row>
+    <row r="157" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A157" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C156" s="14"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="1" t="s">
+      <c r="B157" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" s="14"/>
+    </row>
+    <row r="158" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A158" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C157" s="14">
-        <v>43686</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="1" t="s">
+      <c r="B158" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="C158" s="14"/>
     </row>
@@ -2606,7 +2621,7 @@
         <v>168</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C159" s="14"/>
     </row>
@@ -2615,25 +2630,25 @@
         <v>169</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C160" s="14"/>
     </row>
-    <row r="161" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A161" s="2" t="s">
+    <row r="161" spans="1:7">
+      <c r="A161" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B161" s="15" t="s">
-        <v>164</v>
+      <c r="B161" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="C161" s="14"/>
     </row>
-    <row r="162" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B162" s="16" t="s">
-        <v>78</v>
+      <c r="B162" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="C162" s="14"/>
     </row>
@@ -2642,27 +2657,25 @@
         <v>172</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="C163" s="14"/>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A164" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B164" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C164" s="14">
-        <v>43686</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="1" t="s">
+      <c r="B164" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" s="14"/>
+    </row>
+    <row r="165" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A165" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B165" s="13" t="s">
-        <v>78</v>
+      <c r="B165" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C165" s="14"/>
     </row>
@@ -2671,7 +2684,7 @@
         <v>175</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C166" s="14"/>
     </row>
@@ -2680,108 +2693,112 @@
         <v>176</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C167" s="14"/>
     </row>
-    <row r="168" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A168" s="2" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C168" s="14"/>
     </row>
-    <row r="169" spans="1:7" customHeight="1" ht="16.5">
-      <c r="A169" s="9" t="s">
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C169" s="14"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C169" s="14"/>
-    </row>
-    <row r="170" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A170" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>181</v>
+      <c r="B170" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C170" s="14"/>
     </row>
     <row r="171" spans="1:7" customHeight="1" ht="15.75">
       <c r="A171" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="14"/>
+    </row>
+    <row r="172" spans="1:7" customHeight="1" ht="16.5">
+      <c r="A172" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B171" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C171" s="14"/>
-    </row>
-    <row r="172" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A172" s="3" t="s">
+      <c r="C172" s="14"/>
+    </row>
+    <row r="173" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A173" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B173" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C172" s="14">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="1" t="s">
+      <c r="C173" s="14"/>
+    </row>
+    <row r="174" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A174" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B174" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C173" s="14"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="1" t="s">
+      <c r="C174" s="14"/>
+    </row>
+    <row r="175" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A175" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B174" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C174" s="14"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="1" t="s">
+      <c r="B175" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B175" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C175" s="14"/>
+      <c r="C175" s="14">
+        <v>43691</v>
+      </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C176" s="14"/>
-    </row>
-    <row r="177" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A177" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C176" s="14">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B177" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C177" s="14"/>
-    </row>
-    <row r="178" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A178" s="3" t="s">
+      <c r="B177" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C177" s="14">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B178" s="16" t="s">
-        <v>184</v>
+      <c r="B178" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="C178" s="14"/>
     </row>
@@ -2790,49 +2807,43 @@
         <v>191</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C179" s="14">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C179" s="14"/>
+    </row>
+    <row r="180" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A180" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B180" s="13" t="s">
-        <v>184</v>
+      <c r="B180" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C180" s="14"/>
     </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A181" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B181" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C181" s="14">
-        <v>43684</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A182" s="2" t="s">
+      <c r="B181" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C181" s="14"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C182" s="14">
-        <v>43690</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" customHeight="1" ht="15.75">
-      <c r="A183" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" s="14"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B183" s="16" t="s">
-        <v>184</v>
+      <c r="B183" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="C183" s="14"/>
     </row>
@@ -2841,38 +2852,34 @@
         <v>196</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C184" s="14"/>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A185" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C185" s="14">
-        <v>43686</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" s="14"/>
+    </row>
+    <row r="186" spans="1:7" customHeight="1" ht="15.75">
+      <c r="A186" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B186" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C186" s="14">
-        <v>43686</v>
-      </c>
+      <c r="B186" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" s="14"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C187" s="14"/>
     </row>
@@ -2881,19 +2888,21 @@
         <v>200</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C188" s="14"/>
+        <v>187</v>
+      </c>
+      <c r="C188" s="14">
+        <v>43705</v>
+      </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C189" s="14">
-        <v>43692</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -2901,18 +2910,16 @@
         <v>202</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C190" s="14">
-        <v>43679</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C190" s="14"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C191" s="14"/>
     </row>
@@ -2921,9 +2928,36 @@
         <v>204</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C192" s="14"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C193" s="14"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" s="14"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C195" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
